--- a/Projects/Inventory.xlsx
+++ b/Projects/Inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trten-my.sharepoint.com/personal/keerthik_shenoy_thomsonreuters_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6117326\Documents\Python-scripts\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{81193F6A-3630-447E-BCC7-AD8C6538CF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50B0BB4-23B3-43F5-A314-35D284311CAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337B86B1-6F4D-4261-BEDC-340D3728209F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{EAD384B2-E093-42AC-B198-6375103A75E9}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21864" windowHeight="11028" xr2:uid="{EAD384B2-E093-42AC-B198-6375103A75E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>Product No</t>
   </si>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8203D115-910D-471A-8E97-39A9CBB8078A}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,6 +723,160 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>548</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <v>4545</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>5555</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>528</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>525</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>552</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>78</v>
+      </c>
+      <c r="C28">
+        <v>2552</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>790</v>
+      </c>
+      <c r="C29">
+        <v>2288</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>255</v>
+      </c>
+      <c r="C30">
+        <v>888</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>494</v>
+      </c>
+      <c r="C32">
+        <v>8898</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
